--- a/需求梳理.xlsx
+++ b/需求梳理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFB279C-254C-44FE-9930-32A7341934D5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62C822C-93BC-432B-9FEB-1D435F79ACC9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>C2C交易</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,12 +418,205 @@
 1、进度条拉取，对应百分比正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>前后端状态对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台订单状态    后台状态（买入）
+待支付       待支付
+已撤销       已撤销
+失效           已失效
+已取消       已取消
+待收币       待放款
+充值成功   已成交
+1.2提现订单 
+前台        后台 
+待卖出     待放款 
+卖出取消   驳回 
+卖出成功   卖出成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全中心列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-实名认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、中国大陆先完成一级实名认证-客服通过后-完成二级实名认证
+2、非中国大陆认证通过后，直接是二级认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-实名认证-一级认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入姓名和身份证 后 由客服审核：认证失败、认证成功、认证中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-实名认证-二级认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、每日仅限3次高级认证
+2、扫描二维码，走face++流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实名认证状态：未认证、认证处理中、已认证（查看后，开放高级认证入口）、认证失败（点查看，弹出失败原因以及重新注册）。
+2、登陆密码 有重置按钮
+3、没有绑定手机，提示未绑定手机
+4、没有绑定有下过，提示去绑定邮箱
+5、谷歌验证未绑定，提示绑定谷歌邮箱
+6、未设置资金密码，提示设置资金密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、需要输入邮箱验证码和手机验证码。？如果缺少一项，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否需要提示去绑定&amp;开启？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2、谷歌绑定成功
+3、谷歌绑定失败？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-手机验证-绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-谷歌认证-绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-邮箱验证-绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、需要手机验证码、邮箱验证码、谷歌验证码
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2、输入邮箱和验证码，绑定成功或失败（邮箱唯一）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3、绑定后，邮箱验证默认开启</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">需要 邮箱验证和谷歌验证？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2、输入手机号和验证码，绑定手机（成功或失败）（手机唯一）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3、绑定后默认开启还是关闭呀</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-资金密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">安全设置
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改安全设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、24小时无法提币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、没有设置资金密码，提示设置。 设置 需要 手机、邮箱、谷歌验证
+2、已设置资金密码，提示重置。 重置  需要 手机 邮箱 谷歌验证
+3、开启资金密码 涉及点：买入、卖出，C2C 买入和提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,13 +662,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -490,16 +705,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -782,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -807,7 +1026,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -818,7 +1037,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -827,7 +1046,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -836,7 +1055,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -845,7 +1064,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -853,8 +1072,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -863,7 +1082,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -872,7 +1091,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -881,7 +1100,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -889,168 +1108,278 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="11" spans="1:3" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="14" spans="1:3" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="20" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" t="s">
         <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="25" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="26" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="27" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="29" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="30" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A10"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求梳理.xlsx
+++ b/需求梳理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62C822C-93BC-432B-9FEB-1D435F79ACC9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A06599-5802-41E1-AF02-E966D9D3FA24}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>C2C交易</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,75 +455,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、输入姓名和身份证 后 由客服审核：认证失败、认证成功、认证中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>安全设置-实名认证-二级认证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、每日仅限3次高级认证
-2、扫描二维码，走face++流程</t>
+    <t>安全设置-手机验证-绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-谷歌认证-绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-邮箱验证-绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">安全设置
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、没有设置资金密码，提示设置。 设置 需要 手机、邮箱、谷歌验证
+2、已设置资金密码，提示重置。 重置  需要 手机 邮箱 谷歌验证
+3、开启资金密码 涉及点：买入、卖出，C2C 买入和提现
+4、设置后默认开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-谷歌认证-关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-谷歌认证-开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-邮箱验证-关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-邮箱验证-开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-手机验证-关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-手机验证-开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-资金密码-关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-资金密码-开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-资金密码-设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-谷歌认证-解绑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-手机验证-解绑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-邮箱验证-解绑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、实名认证状态：未认证、认证处理中、已认证（查看后，开放高级认证入口）、认证失败（点查看，弹出失败原因以及重新注册）。
 2、登陆密码 有重置按钮
-3、没有绑定手机，提示未绑定手机
-4、没有绑定有下过，提示去绑定邮箱
-5、谷歌验证未绑定，提示绑定谷歌邮箱
+3、没有绑定手机，提示未绑定手机。绑定后提示解绑
+4、没有绑定邮箱，提示去绑定邮箱。绑定后提示解绑
+5、谷歌验证未绑定，提示绑定谷歌验证。绑定后提示解绑
 6、未设置资金密码，提示设置资金密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1、需要输入邮箱验证码和手机验证码。？如果缺少一项，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+    <t>1、需要安全验证
+2、谷歌绑定成功
+3、谷歌绑定失败？
+4、绑定后默认开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、短信、手机根据设置是否需要。谷歌验证码必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、关闭登陆谷歌验证，需要输入验证码
+2、关闭提币谷歌验证，谷歌验证码必填。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登陆谷歌开关。直接开启
+2、提现谷歌开关。直接开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、手机和邮箱必须开启一项。
+2、验证码必填，其他根据配置选填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、邮箱验证码必填。其他根据开关选填。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、直接开启，不需要任何验证
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>是否需要提示去绑定&amp;开启？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2、谷歌绑定成功
-3、谷歌绑定失败？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全设置-手机验证-绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全设置-谷歌认证-绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全设置-邮箱验证-绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1、需要手机验证码、邮箱验证码、谷歌验证码
+      <t>2、登录、提币、找回密码、修改安全设置时进行安全验证</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、直接开启，不需要任何验证
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -531,38 +603,43 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2、输入邮箱和验证码，绑定成功或失败（邮箱唯一）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
+      <t>2、登录、提币、找回密码、修改安全设置时进行安全验证</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、关闭交易资金密码：输入资金密码
+2、关闭提币资金密码：输入资金密码。并且有24小时无法提币的提示文案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-3、绑定后，邮箱验证默认开启</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>1、开启不需要输入密码</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">需要 邮箱验证和谷歌验证？
-</t>
-    </r>
+      <t xml:space="preserve">
+2、交易、提现</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -572,8 +649,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">2、输入手机号和验证码，绑定手机（成功或失败）（手机唯一）
-</t>
+      <t>1、邮箱验证码必填，谷歌手机根据配置选填</t>
     </r>
     <r>
       <rPr>
@@ -584,31 +660,133 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3、绑定后默认开启还是关闭呀</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全设置-资金密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">安全设置
+      <t xml:space="preserve">
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改安全设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、24小时无法提币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、没有设置资金密码，提示设置。 设置 需要 手机、邮箱、谷歌验证
-2、已设置资金密码，提示重置。 重置  需要 手机 邮箱 谷歌验证
-3、开启资金密码 涉及点：买入、卖出，C2C 买入和提现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2、输入邮箱和验证码，绑定成功或失败（邮箱唯一）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3、绑定后，邮箱验证默认开启</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24小时无法提币 对应操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-资金密码-重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、重置资金密码
+2、重置登陆密码
+3、谷歌验证码解绑
+4、手机验证关闭
+5、邮箱验证关闭
+6、谷歌验证码关闭
+6、资金密码关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、安全验证
+2、重置资金密码 6位数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、验证码只能使用一次
+2、谷歌验证码30s内不能重复使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、安全验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2、输入手机号和验证码，绑定手机（成功或失败）（手机唯一）
+3、绑定后默认开启</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入姓名和身份证 后  第三方接口返回：认证失败、认证成功、认证中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、每日仅限3次高级认证
+2、扫描二维码，走face++流程，第三方接口返回成功还是失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-实名认证-二级认证总是不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、客服发送链接给客户
+2、用户上传身份证正面 、反面、手持 
+3、管理后台审核（通过or不通过）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-实名认证-非大陆用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、上传护照
+2、后台审核 （审核种 审核通过 审核失败）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +794,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,6 +856,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -705,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -714,12 +918,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1001,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1026,7 +1240,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1037,7 +1251,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1260,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1055,7 +1269,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1064,7 +1278,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -1073,7 +1287,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -1082,7 +1296,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -1091,7 +1305,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -1100,7 +1314,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -1109,7 +1323,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>60</v>
       </c>
@@ -1118,7 +1332,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
@@ -1129,7 +1343,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -1138,7 +1352,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -1147,19 +1361,19 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -1168,7 +1382,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -1177,7 +1391,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -1186,7 +1400,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -1195,7 +1409,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>35</v>
       </c>
@@ -1204,7 +1418,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+      <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>36</v>
       </c>
@@ -1213,13 +1427,13 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
+      <c r="A24" s="6"/>
       <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+      <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -1228,7 +1442,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
+      <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
@@ -1237,7 +1451,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+      <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -1246,7 +1460,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
+      <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -1255,7 +1469,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>46</v>
       </c>
@@ -1264,7 +1478,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
+      <c r="A30" s="6"/>
       <c r="B30" t="s">
         <v>47</v>
       </c>
@@ -1273,7 +1487,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
+      <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>50</v>
       </c>
@@ -1282,7 +1496,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
+      <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>51</v>
       </c>
@@ -1291,28 +1505,29 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
+      <c r="A33" s="6"/>
       <c r="B33" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>77</v>
+      <c r="A35" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="B35" t="s">
         <v>62</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
       <c r="B36" t="s">
         <v>63</v>
       </c>
@@ -1321,65 +1536,204 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
       <c r="B37" t="s">
         <v>65</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+      <c r="C45" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
+      <c r="B50" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    </row>
+    <row r="54" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
+      <c r="B54" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="10"/>
+      <c r="B55" t="s">
         <v>79</v>
       </c>
+      <c r="C55" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
+      <c r="B57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A13:A33"/>
+    <mergeCell ref="A35:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求梳理.xlsx
+++ b/需求梳理.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A06599-5802-41E1-AF02-E966D9D3FA24}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3239DAB7-2FCA-4EFF-806B-6A6C1C5122CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PC前台需求梳理" sheetId="1" r:id="rId1"/>
+    <sheet name="公共部分" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>C2C交易</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -762,10 +763,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、输入姓名和身份证 后  第三方接口返回：认证失败、认证成功、认证中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、每日仅限3次高级认证
 2、扫描二维码，走face++流程，第三方接口返回成功还是失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -787,6 +784,15 @@
   <si>
     <t>1、上传护照
 2、后台审核 （审核种 审核通过 审核失败）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入姓名和身份证 后  第三方接口返回：认证失败、认证成功、认证中
+2、身份证号码唯一，即只能给一个用户实名认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、所有验证码不能二次使用。谷歌验证码第二次获取必须等待30s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,15 +928,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1217,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1240,7 +1246,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1251,7 +1257,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="9"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1260,7 +1266,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1269,7 +1275,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="9"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1278,7 +1284,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="9"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -1287,7 +1293,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="9"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -1296,7 +1302,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="9"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -1305,7 +1311,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="9"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -1314,7 +1320,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="9"/>
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -1323,7 +1329,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="9"/>
       <c r="B11" t="s">
         <v>60</v>
       </c>
@@ -1332,7 +1338,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
@@ -1343,7 +1349,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="9"/>
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -1352,7 +1358,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="9"/>
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -1361,19 +1367,19 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+      <c r="A16" s="9"/>
       <c r="B16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="9"/>
       <c r="B17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+      <c r="A18" s="9"/>
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -1382,7 +1388,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="A19" s="9"/>
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -1391,7 +1397,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+      <c r="A20" s="9"/>
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -1400,7 +1406,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+      <c r="A21" s="9"/>
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -1409,7 +1415,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+      <c r="A22" s="9"/>
       <c r="B22" t="s">
         <v>35</v>
       </c>
@@ -1418,7 +1424,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+      <c r="A23" s="9"/>
       <c r="B23" t="s">
         <v>36</v>
       </c>
@@ -1427,13 +1433,13 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+      <c r="A24" s="9"/>
       <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+      <c r="A25" s="9"/>
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -1442,7 +1448,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
+      <c r="A26" s="9"/>
       <c r="B26" t="s">
         <v>44</v>
       </c>
@@ -1451,7 +1457,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+      <c r="A27" s="9"/>
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -1460,7 +1466,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+      <c r="A28" s="9"/>
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -1469,7 +1475,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="9"/>
       <c r="B29" t="s">
         <v>46</v>
       </c>
@@ -1478,7 +1484,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="9"/>
       <c r="B30" t="s">
         <v>47</v>
       </c>
@@ -1487,7 +1493,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+      <c r="A31" s="9"/>
       <c r="B31" t="s">
         <v>50</v>
       </c>
@@ -1496,7 +1502,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
+      <c r="A32" s="9"/>
       <c r="B32" t="s">
         <v>51</v>
       </c>
@@ -1505,7 +1511,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
+      <c r="A33" s="9"/>
       <c r="B33" t="s">
         <v>52</v>
       </c>
@@ -1535,13 +1541,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" t="s">
         <v>65</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
@@ -1550,25 +1556,25 @@
         <v>66</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="57" x14ac:dyDescent="0.2">
@@ -1612,13 +1618,13 @@
       <c r="B45" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C46" s="1"/>
@@ -1652,7 +1658,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C50" s="5"/>
@@ -1662,7 +1668,7 @@
       <c r="B51" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1671,7 +1677,7 @@
       <c r="B52" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1698,7 +1704,7 @@
       <c r="B55" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="8" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1707,7 +1713,7 @@
       <c r="B56" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1739,4 +1745,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A74198-52FD-4C48-B603-015E151E9316}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="75.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/需求梳理.xlsx
+++ b/需求梳理.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3239DAB7-2FCA-4EFF-806B-6A6C1C5122CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD158E6-BA1B-4EC5-924F-E13F4A9B45B4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC前台需求梳理" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="139">
   <si>
     <t>C2C交易</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,39 +313,6 @@
   </si>
   <si>
     <t>买入&amp;卖出 共同属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1、未登录，买入、卖出按钮显示登陆。余额模块不展示
-2、资产为0或折算金额小于最小单位，则余额显示“0.00000000”
-3、余额未加载出来，则余额用“--”符号表示
-4、点击“充币”按钮，则跳转至【资金页面】，同时将充值地址展开
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5、支持小数位数待确定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-6、已设置资金密码，买入卖出时，需要输入资金密码。
-</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -412,11 +379,6 @@
   </si>
   <si>
     <t>1、卖出后，卖出的数量被冻结，等待交易成功或者失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、买入后，买入的数量被冻结，等待交易成功或者失败
-1、进度条拉取，对应百分比正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -590,54 +552,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1、直接开启，不需要任何验证
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2、登录、提币、找回密码、修改安全设置时进行安全验证</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、关闭交易资金密码：输入资金密码
 2、关闭提币资金密码：输入资金密码。并且有24小时无法提币的提示文案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1、开启不需要输入密码</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2、交易、提现</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -792,7 +708,290 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、所有验证码不能二次使用。谷歌验证码第二次获取必须等待30s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、所有验证码，短信or 邮件  内容格式正确，无错别字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、买入后，买入的数量被冻结，等待交易成功或者失败；交易成功，冻结的资金扣除，对应增加。交易失败，冻结的资金解冻
+1、进度条拉取，对应百分比正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产管理-资产-总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有货币，包括冻结所有冻结和持有资产转换为人名币的总和。包括C2C的资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产管理-资产管理-列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产管理-资产管理-搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、隐藏小额资产，总额小于10cny隐藏
+2、隐藏按钮，鼠标悬停，显示小于10cny
+3、关键词，模糊搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、排序分页待确定-按持有总值倒序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产管理-资产管理-列表-充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带备注文案：
+1. 请勿向上述地址充值任何非 XRP 资产，否则资产将不可找回。
+2. 请务必填写并仔细核对地址标签，这是您账户的唯一标识，否则资产将不可找回。
+3. 您充值至上述地址后，需要整个网络节点的确认，X次网络确认后到账，Y 次网络确认后可提币。
+4. 最小充值金额：Z XRP，小于最小金额的充值将无法到账。
+5. 充值完成后，你可以进入资金记录页面跟踪进度。
+不带备注文案：
+1. 请勿向上述地址充值任何非 VET 资产，否则资产将不可找回。
+2. 您充值至上述地址后，需要整个网络节点的确认，X 次网络确认后到账，Y 次网络确认后可提币。
+3. 最小充值金额：Z VET，小于最小金额的充值将无法到账。
+4. 充值完成后，你可以进入资金记录页面跟踪进度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全验证涉及模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、安全设置-手机验证：登录、提币、找回密码、修改安全设置时进行安全验证
+2、安全设置-邮箱验证：登录、提币、找回密码、修改安全设置时进行安全验证
+3、安全设置-谷歌验证：登陆、提币
+4、安全设置-资金密码：交易、提币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1、开启不需要输入密码</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2、交易、提币</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名认证-级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、绑定银行卡，必须实名认证
+2、C2C买卖出需要实名认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、C2C充提必须设置银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产管理-资产管理-列表-提币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、提币根据未实名认证、一级、二级 设置单日提币限额、累计提币限额
+2、C2C买卖根据实名认证等级，设置单日和累计的充值和提现限额
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、首次提币需要设置资金密码，可关闭
+2、没有设置资金密码无法提币。
+3、资金密码关闭，仍可提币
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击交易，出现支持该货币支持的交易对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产管理-资产记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2C:前端展示     后台
+确认中         确认中
+充值成功      成功
+冲币提币：前端展示     后台
+系统审核中   待审核
+系统提币中   提币中（系统自动审核通过）
+系统提币中   提币中
+系统提币中   提币中_引擎处理失败
+系统提币中   提币中_钱包处理失败
+区块确认中   区块确认中
+提币成功     提币成功
+提币取消     提币取消
+审核不通过   审核驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、未登录，买入、卖出按钮显示登陆。余额模块不展示
+2、资产为0或折算金额小于最小单位，则余额显示“0.00000000”
+3、余额未加载出来，则余额用“--”符号表示
+4、点击“充币”按钮，则跳转至【资金页面】，同时将充值地址展开
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5、支持小数位数待确定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6、已设置资金密码，买入卖出时，需要输入资金密码。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7、老用户资金密码可能是多位的，可能不止6位，可能还有字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、包含C2C充值提现、冲币和提币的所有流水记录
+2、列表状态正确
+3、详情 （交易ID、不通过理由）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、没有提币地址，提示增加提币地址
+2、首次提币，提示设置资金密码
+3、根据未实名、一级、二级 设置单日最大提币限额和累计限额
+4、提币手续费计算正确
+5、提币后，资产被冻结。直到提币成功，数据对应加减
+6、对应安全操作后，24小时内无法提币操作
+7、每种货币设置了最低提币金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（细节未确定）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、首次充值，未设置资金密码或者谷歌验证，点击充值，出现安全提示 ，可开启和继续充值；开启-跳转到我的账户-安全中心
+2、主链币需要带备注、非主链币不需要备注。
+3、带备注和不带备注说明不一样。备注中有变量XYZ，见下条
+4、X网络确认到账，Y网络确认可提币、最小充值数Z，此XYZ变量跟货币相关，每种不一样
+5、第一次点充值，生成该货币的充值地址；第二次直接读取
+6、如果有充值地址，直接展示；
+7、有二维码和复制按钮 功能正确
+8、每种货币设置了最低充值金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（细节未确定）
+</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +999,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,8 +1087,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,6 +1113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,31 +1135,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,519 +1464,598 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="95.75" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="95.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" t="s">
+    <row r="3" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" t="s">
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" t="s">
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" t="s">
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" t="s">
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" t="s">
+    <row r="11" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="C24" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C35" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="C24" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+      <c r="C36" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" t="s">
+      <c r="C43" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" t="s">
+      <c r="C45" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" t="s">
+      <c r="C50" s="12"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" t="s">
+      <c r="C51" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" t="s">
+      <c r="C52" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" t="s">
+      <c r="C54" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
-      <c r="B49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="5" t="s">
+      <c r="C55" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
-      <c r="B51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="7" t="s">
+    <row r="57" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
-      <c r="B53" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
-      <c r="B55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" t="s">
+    <row r="58" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
-      <c r="B57" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>101</v>
-      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B61" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="B66" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1749,20 +2071,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A74198-52FD-4C48-B603-015E151E9316}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75.125" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="117.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>109</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
